--- a/数据整理/stocks/A股/深证主板/002548-金新农.xlsx
+++ b/数据整理/stocks/A股/深证主板/002548-金新农.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,13 +1053,443 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5143</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014628</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>13</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002548-金新农.xlsx
+++ b/数据整理/stocks/A股/深证主板/002548-金新农.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,547 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009970</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>财通内需增长12个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>64.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5584</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.01</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011201</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>财通优势行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5112</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501015</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>财通多策略升级混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2191</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008185</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安研究优选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1349</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005851</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0623</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009347</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中融价值成长6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0512</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>020015</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰区位优势混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>80.83</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0503</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>财通多策略精选混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0492</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501032</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>财通福盛多策略混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0303</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005959</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.27</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0286</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011202</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>财通优势行业轮动混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.39</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005264</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国都多策略混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>40.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009348</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中融价值成长6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1436,64 +954,546 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5584</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5112</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2191</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.74</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002548-金新农.xlsx
+++ b/数据整理/stocks/A股/深证主板/002548-金新农.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>2.01</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>13</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.74</v>
       </c>
     </row>
@@ -581,26 +598,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8317</t>
+          <t>0.7413</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -609,36 +626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009970</t>
+          <t>010418</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通内需增长12个月定期开放混合</t>
+          <t>财通景气行业混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.61</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>62.47</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5143</t>
+          <t>0.2636</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -647,36 +664,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010418</t>
+          <t>501015</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通景气行业一年封闭运作混合</t>
+          <t>财通多策略升级混合（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2261</t>
+          <t>0.1691</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -685,36 +702,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501015</t>
+          <t>005959</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通多策略升级混合（LOF）</t>
+          <t>财通新视野灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.12</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1927</t>
+          <t>0.1007</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -723,36 +740,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501032</t>
+          <t>005851</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通福盛多策略混合（LOF）</t>
+          <t>财通新视野灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0600</t>
+          <t>0.0557</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -761,36 +778,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>015271</t>
+          <t>501032</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通多策略升级混合（LOF）C</t>
+          <t>财通福盛多策略混合（LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97.12</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0513</t>
+          <t>0.0512</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -799,36 +816,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005851</t>
+          <t>015271</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合A</t>
+          <t>财通多策略升级混合（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0506</t>
+          <t>0.0509</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -837,32 +854,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005959</t>
+          <t>011202</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合C</t>
+          <t>财通优势行业轮动混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0481</t>
+          <t>0.0295</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -875,36 +892,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011202</t>
+          <t>014628</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通优势行业轮动混合C</t>
+          <t>财通福盛多策略混合（LOF）C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0315</t>
+          <t>0.0082</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -913,12 +930,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>014628</t>
+          <t>016234</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通福盛多策略混合（LOF）C</t>
+          <t>财通景气行业混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -928,19 +945,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -949,6 +966,440 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5143</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014628</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002548-金新农.xlsx
+++ b/数据整理/stocks/A股/深证主板/002548-金新农.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.47</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.01</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>13</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.74</v>
       </c>
     </row>
@@ -537,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>88.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7413</t>
+          <t>0.4048</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -636,26 +653,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>86.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2636</t>
+          <t>0.1204</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -674,26 +691,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>86.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1691</t>
+          <t>0.0971</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -702,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005959</t>
+          <t>015271</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合C</t>
+          <t>财通多策略升级混合（LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.59</t>
+          <t>86.66</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1007</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -740,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005851</t>
+          <t>011202</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合A</t>
+          <t>财通优势行业轮动混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.59</t>
+          <t>88.19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0557</t>
+          <t>0.0164</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -778,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501032</t>
+          <t>165531</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通福盛多策略混合（LOF）A</t>
+          <t>信诚多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>72.25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0512</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -816,148 +833,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>015271</t>
+          <t>016234</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通多策略升级混合（LOF）C</t>
+          <t>财通景气行业混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>86.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0509</t>
-        </is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011202</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>财通优势行业轮动混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014628</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>财通福盛多策略混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>016234</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>财通景气行业混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.69</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1032,26 +935,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8317</t>
+          <t>0.7413</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1060,36 +963,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009970</t>
+          <t>010418</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通内需增长12个月定期开放混合</t>
+          <t>财通景气行业混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.61</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>62.47</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5143</t>
+          <t>0.2636</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1098,36 +1001,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010418</t>
+          <t>501015</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通景气行业一年封闭运作混合</t>
+          <t>财通多策略升级混合（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2261</t>
+          <t>0.1691</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1136,36 +1039,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501015</t>
+          <t>005959</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通多策略升级混合（LOF）</t>
+          <t>财通新视野灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.12</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1927</t>
+          <t>0.1007</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1174,36 +1077,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501032</t>
+          <t>005851</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通福盛多策略混合（LOF）</t>
+          <t>财通新视野灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0600</t>
+          <t>0.0557</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1212,36 +1115,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>015271</t>
+          <t>501032</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通多策略升级混合（LOF）C</t>
+          <t>财通福盛多策略混合（LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97.12</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0513</t>
+          <t>0.0512</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1250,36 +1153,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005851</t>
+          <t>015271</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合A</t>
+          <t>财通多策略升级混合（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0506</t>
+          <t>0.0509</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1288,32 +1191,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005959</t>
+          <t>011202</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合C</t>
+          <t>财通优势行业轮动混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0481</t>
+          <t>0.0295</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1326,36 +1229,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011202</t>
+          <t>014628</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通优势行业轮动混合C</t>
+          <t>财通福盛多策略混合（LOF）C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0315</t>
+          <t>0.0082</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1364,12 +1267,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>014628</t>
+          <t>016234</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通福盛多策略混合（LOF）C</t>
+          <t>财通景气行业混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1379,19 +1282,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1400,6 +1303,440 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5143</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014628</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
